--- a/uploads/excel/wesm_sales.xlsx
+++ b/uploads/excel/wesm_sales.xlsx
@@ -44807,8 +44807,8 @@
   <dimension ref="A1:O393"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A369" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K394" sqref="K394"/>
+      <pane ySplit="2" topLeftCell="A370" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I394" sqref="I394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
